--- a/pokemon_escolhidos.xlsx
+++ b/pokemon_escolhidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,39 +502,39 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pikachu</t>
+          <t>Magikarp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
         <v>55</v>
       </c>
-      <c r="H2" t="n">
-        <v>40</v>
-      </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -545,11 +545,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>129</v>
+        <v>484</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Magikarp</t>
+          <t>Palkia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -557,80 +557,37 @@
           <t>Water</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="b">
         <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>195</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Quagsire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ground</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>430</v>
-      </c>
-      <c r="F4" t="n">
-        <v>95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>85</v>
-      </c>
-      <c r="H4" t="n">
-        <v>85</v>
-      </c>
-      <c r="I4" t="n">
-        <v>65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>65</v>
-      </c>
-      <c r="K4" t="n">
-        <v>35</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
